--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/108.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/108.xlsx
@@ -479,13 +479,13 @@
         <v>-0.09181596097263389</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.574276917413017</v>
+        <v>-1.577982519467743</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04770364721027479</v>
+        <v>0.06612799406945166</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1137148895763182</v>
+        <v>-0.1335204419294947</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.0522451658686604</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.678375426198625</v>
+        <v>-1.663326710525629</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01954369968091871</v>
+        <v>0.05096539464536482</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.09266391620159661</v>
+        <v>-0.116820411865681</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.02144133081829957</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.798482632277002</v>
+        <v>-1.773423096868691</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04814312168563831</v>
+        <v>0.1000171703075335</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1531026069247622</v>
+        <v>-0.1931838471163878</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.007235695508839976</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.996397261167995</v>
+        <v>-1.971172010301365</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08774838619962767</v>
+        <v>0.128664773899253</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1606758763723056</v>
+        <v>-0.1855594759856626</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.009143012736027708</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.120624722958916</v>
+        <v>-2.122695071151824</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1393508658766138</v>
+        <v>0.147248266000339</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.169849358527485</v>
+        <v>-0.1887248602467526</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.02526313638811211</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.003324459335311</v>
+        <v>-1.953662383571142</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2567971343093096</v>
+        <v>0.2904789837184823</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1857376018527534</v>
+        <v>-0.209076470585929</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.05036344808811712</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.751434772619606</v>
+        <v>-1.704786236115073</v>
       </c>
       <c r="F8" t="n">
-        <v>0.33628361242647</v>
+        <v>0.3321429160406529</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1830569535578451</v>
+        <v>-0.2206619521872895</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.07660104777619192</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.317182889277268</v>
+        <v>-1.269434936560281</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3836607129283664</v>
+        <v>0.4015579824267252</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1629228903842141</v>
+        <v>-0.1831591569242087</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.08950399064157288</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.8042636147967692</v>
+        <v>-0.751780726120965</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3748989643348233</v>
+        <v>0.4072974314720873</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1189623024150441</v>
+        <v>-0.1512425056569445</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.07005138014620246</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.1926480094670243</v>
+        <v>-0.1473076760519456</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2889050518764827</v>
+        <v>0.3203004659752925</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.0930128676953238</v>
+        <v>-0.1214137231596798</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.004167580625931406</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5374023168529615</v>
+        <v>0.619478920283394</v>
       </c>
       <c r="F12" t="n">
-        <v>0.06569435978645177</v>
+        <v>0.09198106561517198</v>
       </c>
       <c r="G12" t="n">
-        <v>0.01437658948719283</v>
+        <v>0.006254341957467735</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.1170811914535355</v>
       </c>
       <c r="E13" t="n">
-        <v>1.217832908803415</v>
+        <v>1.256622006434587</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.2494672409728272</v>
+        <v>-0.2095787271292016</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1496091637633383</v>
+        <v>0.1717201320520597</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.2946675591708496</v>
       </c>
       <c r="E14" t="n">
-        <v>1.990729806399208</v>
+        <v>2.024489038357199</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.7124382702633393</v>
+        <v>-0.702720190170251</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2499655692919477</v>
+        <v>0.2269522912830448</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.5200630132017059</v>
       </c>
       <c r="E15" t="n">
-        <v>2.807206219412443</v>
+        <v>2.853216714901249</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.129617811278682</v>
+        <v>-1.096957995533145</v>
       </c>
       <c r="G15" t="n">
-        <v>0.427500116905991</v>
+        <v>0.4301398838543539</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.7811827525260432</v>
       </c>
       <c r="E16" t="n">
-        <v>3.476268876927081</v>
+        <v>3.565422333454149</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.59819104509401</v>
+        <v>-1.571653210993654</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5797685323068592</v>
+        <v>0.5949763932217642</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.059517397017387</v>
       </c>
       <c r="E17" t="n">
-        <v>4.117002221333818</v>
+        <v>4.235594627517878</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.972134912017319</v>
+        <v>-1.90123059657852</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7164553144815498</v>
+        <v>0.7362564866904535</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.338128393583931</v>
       </c>
       <c r="E18" t="n">
-        <v>4.691561806116301</v>
+        <v>4.800954449279544</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.36365264778685</v>
+        <v>-2.35163353190249</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9259021332185844</v>
+        <v>0.9443060394044885</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.607345165886889</v>
       </c>
       <c r="E19" t="n">
-        <v>5.136149369894182</v>
+        <v>5.25118947907306</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.745733362720793</v>
+        <v>-2.690876435849172</v>
       </c>
       <c r="G19" t="n">
-        <v>1.098114805541266</v>
+        <v>1.11827076943626</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.855827196671574</v>
       </c>
       <c r="E20" t="n">
-        <v>5.523904561733441</v>
+        <v>5.585157959291333</v>
       </c>
       <c r="F20" t="n">
-        <v>-3.076321831608614</v>
+        <v>-3.015536379463857</v>
       </c>
       <c r="G20" t="n">
-        <v>1.25277185961886</v>
+        <v>1.271615240280128</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>2.073096747416444</v>
       </c>
       <c r="E21" t="n">
-        <v>5.837277603581357</v>
+        <v>5.930157102836422</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.369767407087762</v>
+        <v>-3.327698311420364</v>
       </c>
       <c r="G21" t="n">
-        <v>1.389011867077733</v>
+        <v>1.423633987457451</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>2.25015459355163</v>
       </c>
       <c r="E22" t="n">
-        <v>6.096224432744469</v>
+        <v>6.20190271356444</v>
       </c>
       <c r="F22" t="n">
-        <v>-3.664834365971865</v>
+        <v>-3.603029800259654</v>
       </c>
       <c r="G22" t="n">
-        <v>1.476565110897164</v>
+        <v>1.499417783616067</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.37886132630705</v>
       </c>
       <c r="E23" t="n">
-        <v>6.193234408048715</v>
+        <v>6.251172036392155</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.889134983961759</v>
+        <v>-3.834223305286729</v>
       </c>
       <c r="G23" t="n">
-        <v>1.579387537651318</v>
+        <v>1.60267238460513</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.457338883774092</v>
       </c>
       <c r="E24" t="n">
-        <v>6.303634484394686</v>
+        <v>6.377686663517484</v>
       </c>
       <c r="F24" t="n">
-        <v>-4.100862397816793</v>
+        <v>-4.073647101402255</v>
       </c>
       <c r="G24" t="n">
-        <v>1.689945299191107</v>
+        <v>1.720232536788917</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.484408112649303</v>
       </c>
       <c r="E25" t="n">
-        <v>6.307068517504503</v>
+        <v>6.33971373276913</v>
       </c>
       <c r="F25" t="n">
-        <v>-4.200608503243402</v>
+        <v>-4.22207778039617</v>
       </c>
       <c r="G25" t="n">
-        <v>1.700111614048104</v>
+        <v>1.712240233539282</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.460048853208394</v>
       </c>
       <c r="E26" t="n">
-        <v>6.210865948794529</v>
+        <v>6.24496391190961</v>
       </c>
       <c r="F26" t="n">
-        <v>-4.24936023902289</v>
+        <v>-4.258056285452342</v>
       </c>
       <c r="G26" t="n">
-        <v>1.69567014775556</v>
+        <v>1.678005025903655</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.388244364600676</v>
       </c>
       <c r="E27" t="n">
-        <v>6.046185664572846</v>
+        <v>6.104765714076285</v>
       </c>
       <c r="F27" t="n">
-        <v>-4.291873919333969</v>
+        <v>-4.287468224219652</v>
       </c>
       <c r="G27" t="n">
-        <v>1.710974371844465</v>
+        <v>1.710943710834556</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.27731040460993</v>
       </c>
       <c r="E28" t="n">
-        <v>5.957404520308961</v>
+        <v>6.030725215338213</v>
       </c>
       <c r="F28" t="n">
-        <v>-4.255095307923979</v>
+        <v>-4.245980227692436</v>
       </c>
       <c r="G28" t="n">
-        <v>1.672199874694202</v>
+        <v>1.66729557315684</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.137001382175673</v>
       </c>
       <c r="E29" t="n">
-        <v>5.684054316729034</v>
+        <v>5.74447840697129</v>
       </c>
       <c r="F29" t="n">
-        <v>-4.22555634497276</v>
+        <v>-4.231626494910713</v>
       </c>
       <c r="G29" t="n">
-        <v>1.62039444833258</v>
+        <v>1.620027976261762</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.97988549216493</v>
       </c>
       <c r="E30" t="n">
-        <v>5.55247186268016</v>
+        <v>5.636468429350137</v>
       </c>
       <c r="F30" t="n">
-        <v>-4.172342702227455</v>
+        <v>-4.205667569878401</v>
       </c>
       <c r="G30" t="n">
-        <v>1.600587435931312</v>
+        <v>1.620552133526398</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.815903874118624</v>
       </c>
       <c r="E31" t="n">
-        <v>5.29756206648841</v>
+        <v>5.384519610686751</v>
       </c>
       <c r="F31" t="n">
-        <v>-4.032533607210357</v>
+        <v>-4.082007336770798</v>
       </c>
       <c r="G31" t="n">
-        <v>1.450733940072807</v>
+        <v>1.453414588367715</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.652131562258909</v>
       </c>
       <c r="E32" t="n">
-        <v>4.959480630798047</v>
+        <v>5.030276902678119</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.84511161392468</v>
+        <v>-3.902682040173255</v>
       </c>
       <c r="G32" t="n">
-        <v>1.331156001427385</v>
+        <v>1.348642997412198</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.496495605030954</v>
       </c>
       <c r="E33" t="n">
-        <v>4.674806294225032</v>
+        <v>4.777876929154641</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.630959060190647</v>
+        <v>-3.719410233585986</v>
       </c>
       <c r="G33" t="n">
-        <v>1.279687846174762</v>
+        <v>1.331239224168566</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.350068376038823</v>
       </c>
       <c r="E34" t="n">
-        <v>4.282990708644956</v>
+        <v>4.388270396336109</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.454034082654557</v>
+        <v>-3.548516714713442</v>
       </c>
       <c r="G34" t="n">
-        <v>1.193486606887513</v>
+        <v>1.247539047261043</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.213768022720982</v>
       </c>
       <c r="E35" t="n">
-        <v>3.925903826955234</v>
+        <v>4.027594716438934</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.320960189480821</v>
+        <v>-3.444174377896651</v>
       </c>
       <c r="G35" t="n">
-        <v>1.119922083827078</v>
+        <v>1.196660751437148</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.089088100039264</v>
       </c>
       <c r="E36" t="n">
-        <v>3.582573518378053</v>
+        <v>3.705489126959292</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.165726416407317</v>
+        <v>-3.28788353000533</v>
       </c>
       <c r="G36" t="n">
-        <v>0.988132302949295</v>
+        <v>1.053646120836459</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.9744287595870293</v>
       </c>
       <c r="E37" t="n">
-        <v>3.193810893356066</v>
+        <v>3.310851268419489</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.025386593909173</v>
+        <v>-3.148997185381685</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8704889280243265</v>
+        <v>0.9248508985931302</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.8706515017251405</v>
       </c>
       <c r="E38" t="n">
-        <v>2.845314934633251</v>
+        <v>2.990947431460939</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.867824774154715</v>
+        <v>-2.981536969594912</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7756266834618066</v>
+        <v>0.8284074219481561</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.7782198584461734</v>
       </c>
       <c r="E39" t="n">
-        <v>2.479343660310349</v>
+        <v>2.592983583370046</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.750708476590565</v>
+        <v>-2.855012852156991</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6833837651743768</v>
+        <v>0.7325917659822727</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.6951981331814239</v>
       </c>
       <c r="E40" t="n">
-        <v>2.171410757649159</v>
+        <v>2.24207708524914</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.62568820868628</v>
+        <v>-2.745686641181884</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5802182271188591</v>
+        <v>0.6348576068249353</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.6223245632323197</v>
       </c>
       <c r="E41" t="n">
-        <v>1.949597331582128</v>
+        <v>2.006426783424567</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.5180279125829</v>
+        <v>-2.613883719871283</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5007711703001532</v>
+        <v>0.5560281503486837</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.5580157084620572</v>
       </c>
       <c r="E42" t="n">
-        <v>1.614180483657672</v>
+        <v>1.622886750423761</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.430372465397105</v>
+        <v>-2.488346594942817</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4531677623441659</v>
+        <v>0.5122661289198773</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.4998874790937281</v>
       </c>
       <c r="E43" t="n">
-        <v>1.421714024217906</v>
+        <v>1.474042147796074</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.380203752945392</v>
+        <v>-2.451132889201736</v>
       </c>
       <c r="G43" t="n">
-        <v>0.3647706107281897</v>
+        <v>0.4307954454471719</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.4476393838536135</v>
       </c>
       <c r="E44" t="n">
-        <v>1.200446656136874</v>
+        <v>1.228546741694503</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.343476973242629</v>
+        <v>-2.422267738444471</v>
       </c>
       <c r="G44" t="n">
-        <v>0.3182987400426567</v>
+        <v>0.3661707968473711</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.3993944160603861</v>
       </c>
       <c r="E45" t="n">
-        <v>1.037899502176009</v>
+        <v>1.058832211655367</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.230970047501477</v>
+        <v>-2.309214024693274</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2202214695839557</v>
+        <v>0.2715406999313056</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.3546466248860305</v>
       </c>
       <c r="E46" t="n">
-        <v>0.8245674954690662</v>
+        <v>0.8208808740395217</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.192649625307487</v>
+        <v>-2.283015651774054</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2342627520742247</v>
+        <v>0.3161918906474754</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.3139137447394911</v>
       </c>
       <c r="E47" t="n">
-        <v>0.5358400653956892</v>
+        <v>0.4907055987614286</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.120136336872507</v>
+        <v>-2.232658593118613</v>
       </c>
       <c r="G47" t="n">
-        <v>0.181870386380057</v>
+        <v>0.2462307662754033</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.276519501652204</v>
       </c>
       <c r="E48" t="n">
-        <v>0.4136296600423583</v>
+        <v>0.3541531410111016</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.035231620289984</v>
+        <v>-2.136290308950321</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1179275802387105</v>
+        <v>0.1752738891053315</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.2425340897663479</v>
       </c>
       <c r="E49" t="n">
-        <v>0.2501290946781295</v>
+        <v>0.1574321014344272</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.953417825515915</v>
+        <v>-2.06772134043293</v>
       </c>
       <c r="G49" t="n">
-        <v>0.08584594353717363</v>
+        <v>0.1467299489280664</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.2115652863368459</v>
       </c>
       <c r="E50" t="n">
-        <v>0.1410167807483406</v>
+        <v>0.04613555556063884</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.873742271170982</v>
+        <v>-1.968085468637184</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03216581542682442</v>
+        <v>0.07158565383326837</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.1821360790747408</v>
       </c>
       <c r="E51" t="n">
-        <v>0.03660436162318686</v>
+        <v>-0.03082503935924958</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.825843203476586</v>
+        <v>-1.920565283422379</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.009204647229073569</v>
+        <v>0.05325913019618238</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.1535185341856968</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.04014014617924708</v>
+        <v>-0.1001539629079582</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.747394819552061</v>
+        <v>-1.824486088776086</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.03083525969588594</v>
+        <v>0.02070589796128204</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.1250920493693088</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.1285883994784051</v>
+        <v>-0.2066367302260206</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.685731148480623</v>
+        <v>-1.767109848923601</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.09482186727995967</v>
+        <v>-0.04448232920160955</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.09591327578836127</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.1387503341911297</v>
+        <v>-0.1560139428180342</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.664861221069174</v>
+        <v>-1.754950568422514</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.1376202569687664</v>
+        <v>-0.1056787848839568</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.06607789445814433</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.2736310368773662</v>
+        <v>-0.3061988695931757</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.667375423881719</v>
+        <v>-1.754332968080059</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.1661466765689405</v>
+        <v>-0.1402629440133111</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.0350734194699903</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.3403815154975301</v>
+        <v>-0.3781807005230654</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.61422529322837</v>
+        <v>-1.676075850455444</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.1937094644291149</v>
+        <v>-0.1626352609103051</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.002725610559137743</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.3757789214135206</v>
+        <v>-0.3738808588953393</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.612303869940734</v>
+        <v>-1.667463026767174</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.192972140143206</v>
+        <v>-0.1734235562540295</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.03070190696967258</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.3845654908246091</v>
+        <v>-0.3765658873345204</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.613282102161643</v>
+        <v>-1.656610489307449</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.274466184385366</v>
+        <v>-0.2368086240246488</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.06487847194681556</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.4375608563803222</v>
+        <v>-0.4350904550105046</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.614035486976552</v>
+        <v>-1.637407936815818</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.3152628481415368</v>
+        <v>-0.2856399324250902</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.1001403558744915</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.4377477425359585</v>
+        <v>-0.3883791364380627</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.625641409251185</v>
+        <v>-1.623333073219458</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.3077786416275389</v>
+        <v>-0.2661117892091864</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.1359957445619102</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.5140425555263926</v>
+        <v>-0.4829289307091282</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.652925327925996</v>
+        <v>-1.667102394888719</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.3778594899430655</v>
+        <v>-0.3502207795821638</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.1726743948138004</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.6384561734489046</v>
+        <v>-0.6129140921465478</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.691699825076258</v>
+        <v>-1.6704780260749</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.4028233922014224</v>
+        <v>-0.3847582171726091</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.2101079087546415</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.7241113547501543</v>
+        <v>-0.6687580115276237</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.773414336580145</v>
+        <v>-1.775519725927236</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.4297247782764152</v>
+        <v>-0.4178034856141457</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.2473294540111036</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.8459917892349398</v>
+        <v>-0.7796822451382304</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.772952961383418</v>
+        <v>-1.780945264633052</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.4801241783264926</v>
+        <v>-0.4571547017603169</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.284024209153103</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.9121246675126493</v>
+        <v>-0.8763169880831134</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.752608651284696</v>
+        <v>-1.721918440413795</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.5052968674618494</v>
+        <v>-0.5095324669735756</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.3191029330031095</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.978783163103086</v>
+        <v>-0.9572883351087281</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.906943764758246</v>
+        <v>-1.904252896126701</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.5176050728682098</v>
+        <v>-0.5169670318524827</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.3517363366179065</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.9989508073828078</v>
+        <v>-0.9787320614199041</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.93679517800092</v>
+        <v>-1.913983386628562</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.5114305294917569</v>
+        <v>-0.5015372436277595</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.381498181379752</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.051176727594612</v>
+        <v>-0.9952817065303542</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.995436549524177</v>
+        <v>-1.974311113696819</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.5636462293669247</v>
+        <v>-0.5743805029312854</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.4079225671334625</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.052340385923066</v>
+        <v>-0.9966220306778084</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.040457862431392</v>
+        <v>-2.022702217597851</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.5534974350870183</v>
+        <v>-0.538215111719477</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.4307466523715966</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.08494763993733</v>
+        <v>-1.047982142371704</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.125756061974414</v>
+        <v>-2.125128971319369</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.5709946514084682</v>
+        <v>-0.5734402319607402</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.4503435225101938</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.06544139744279</v>
+        <v>-1.05342374160652</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.189253553448034</v>
+        <v>-2.223875673827751</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.6379495367613592</v>
+        <v>-0.6730359524339862</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.4660049395267519</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.03966862854207</v>
+        <v>-1.056469401924156</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.245855967812337</v>
+        <v>-2.292399380854324</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.6258690988571807</v>
+        <v>-0.645822116067539</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.4771887552577929</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.9424951278516411</v>
+        <v>-0.964724360035726</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.249110415006972</v>
+        <v>-2.291402898032279</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.6734535261879862</v>
+        <v>-0.7003709727919789</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.483467733102078</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.8751328890813865</v>
+        <v>-0.926122148560191</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.258673730002424</v>
+        <v>-2.315695178168818</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.6936416111409807</v>
+        <v>-0.7474954849741481</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.4840134571540317</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.6951965623577985</v>
+        <v>-0.7453930157232396</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.244582075853019</v>
+        <v>-2.322003315945589</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.6769707820389852</v>
+        <v>-0.7329694665176975</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.4787450878202112</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.5636228685974701</v>
+        <v>-0.6286125292199981</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.15352909675968</v>
+        <v>-2.20004476888794</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.645902418712539</v>
+        <v>-0.7060972814045228</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.4677611814776529</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.3934075420631522</v>
+        <v>-0.4606369164571342</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.188895841665761</v>
+        <v>-2.268494743485921</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.6129856345030024</v>
+        <v>-0.6359346703959052</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.4506920781039666</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.2440095812090105</v>
+        <v>-0.2866152445498172</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.136774314892457</v>
+        <v>-2.180215855765309</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.6326656227203608</v>
+        <v>-0.6606912458253532</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.4274117104447251</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.04214917235233745</v>
+        <v>-0.09575483801005033</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.103320232985466</v>
+        <v>-2.159978129177223</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.5337429844170236</v>
+        <v>-0.5517176364642006</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.3976272962955344</v>
       </c>
       <c r="E80" t="n">
-        <v>0.1299788171810709</v>
+        <v>0.06868307822854187</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.068525096906975</v>
+        <v>-2.117086296410598</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.5067496153123036</v>
+        <v>-0.5227444421482084</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.3614358387720763</v>
       </c>
       <c r="E81" t="n">
-        <v>0.2991779502441164</v>
+        <v>0.2347255873190427</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.996601667900722</v>
+        <v>-2.023451222268487</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.405452938813149</v>
+        <v>-0.3978592286923329</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.3200255398437192</v>
       </c>
       <c r="E82" t="n">
-        <v>0.5139364239358769</v>
+        <v>0.4688486788405253</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.937531772262783</v>
+        <v>-1.965751581763866</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.3262321894485339</v>
+        <v>-0.3337412167800773</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.2755818617796372</v>
       </c>
       <c r="E83" t="n">
-        <v>0.779570273355351</v>
+        <v>0.724287012441184</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.852447469765079</v>
+        <v>-1.895837178930703</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2819693715245458</v>
+        <v>-0.2943374389026334</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.2298365287341992</v>
       </c>
       <c r="E84" t="n">
-        <v>1.091121175185813</v>
+        <v>1.077922340443998</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.824364904784541</v>
+        <v>-1.848747707902716</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2401769549703752</v>
+        <v>-0.2506411196379179</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.1856955876866059</v>
       </c>
       <c r="E85" t="n">
-        <v>1.265697665367675</v>
+        <v>1.236336098259501</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.762075603106148</v>
+        <v>-1.752760496286151</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2099159982382015</v>
+        <v>-0.2282556623081057</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1452647662276781</v>
       </c>
       <c r="E86" t="n">
-        <v>1.538138258986965</v>
+        <v>1.556257455795143</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.694085543656803</v>
+        <v>-1.717075460896251</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.139305152465675</v>
+        <v>-0.1532237909163076</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1099626416174131</v>
       </c>
       <c r="E87" t="n">
-        <v>1.763247013595178</v>
+        <v>1.787672158107989</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.607408328691917</v>
+        <v>-1.596996725755647</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.05863749544296939</v>
+        <v>-0.08325974644805369</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.08086138279632045</v>
       </c>
       <c r="E88" t="n">
-        <v>1.925302131349407</v>
+        <v>1.953654805226763</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.485827204065768</v>
+        <v>-1.461822553403138</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.07029305935269353</v>
+        <v>-0.08655945513350734</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.05712095187920439</v>
       </c>
       <c r="E89" t="n">
-        <v>2.090597095817363</v>
+        <v>2.125546266969444</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.407479563459516</v>
+        <v>-1.402268651823063</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01263767221092057</v>
+        <v>0.00480159410701358</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.03871023368645211</v>
       </c>
       <c r="E90" t="n">
-        <v>2.226508592455781</v>
+        <v>2.273341095019768</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.211367363936751</v>
+        <v>-1.187028362261303</v>
       </c>
       <c r="G90" t="n">
-        <v>0.06441681770690666</v>
+        <v>0.04884394476927448</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.02581047817522568</v>
       </c>
       <c r="E91" t="n">
-        <v>2.255093413979591</v>
+        <v>2.316970252072302</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.030756494995163</v>
+        <v>-1.006296309328169</v>
       </c>
       <c r="G91" t="n">
-        <v>0.09083638791189957</v>
+        <v>0.07819675158890296</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.01928820078777761</v>
       </c>
       <c r="E92" t="n">
-        <v>2.24043891129114</v>
+        <v>2.31883181338821</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.8713966260167512</v>
+        <v>-0.8420160782833954</v>
       </c>
       <c r="G92" t="n">
-        <v>0.11292983562353</v>
+        <v>0.09414631693398959</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.01993201154996349</v>
       </c>
       <c r="E93" t="n">
-        <v>2.257721500543227</v>
+        <v>2.345924465763112</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.6783636679177121</v>
+        <v>-0.6421252743013581</v>
       </c>
       <c r="G93" t="n">
-        <v>0.09417989804008049</v>
+        <v>0.07937793049444811</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.02813421064163476</v>
       </c>
       <c r="E94" t="n">
-        <v>2.208500359302513</v>
+        <v>2.295782034177035</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.5191950652392093</v>
+        <v>-0.4847320901014004</v>
       </c>
       <c r="G94" t="n">
-        <v>0.08744031605244594</v>
+        <v>0.04979005593218332</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.04448370555814663</v>
       </c>
       <c r="E95" t="n">
-        <v>2.103537502047086</v>
+        <v>2.211061283653966</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.3279141648492607</v>
+        <v>-0.2936526763479972</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0513975688802738</v>
+        <v>0.02028248401491851</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.06898089173498394</v>
       </c>
       <c r="E96" t="n">
-        <v>1.95927453032867</v>
+        <v>2.057255437613371</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.200041692999386</v>
+        <v>-0.148884527990127</v>
       </c>
       <c r="G96" t="n">
-        <v>0.01859612846991896</v>
+        <v>0.007591746008740103</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1000198461053902</v>
       </c>
       <c r="E97" t="n">
-        <v>1.834110447687431</v>
+        <v>1.92363621647768</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.09747623470923168</v>
+        <v>-0.04772363596342686</v>
       </c>
       <c r="G97" t="n">
-        <v>0.003873003521195647</v>
+        <v>-0.01560841815579912</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1360223520918372</v>
       </c>
       <c r="E98" t="n">
-        <v>1.679029979663473</v>
+        <v>1.76623865213345</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.02473663882016031</v>
+        <v>0.03794614581873195</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.006652483166165163</v>
+        <v>-0.02091569296625224</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1735394141318387</v>
       </c>
       <c r="E99" t="n">
-        <v>1.5115215822897</v>
+        <v>1.575957884685774</v>
       </c>
       <c r="F99" t="n">
-        <v>0.02803679942573461</v>
+        <v>0.09246288148517186</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.04194914576388296</v>
+        <v>-0.0516745260974258</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2114517042346374</v>
       </c>
       <c r="E100" t="n">
-        <v>1.377700874517463</v>
+        <v>1.433988648518175</v>
       </c>
       <c r="F100" t="n">
-        <v>0.09261472648662636</v>
+        <v>0.1771500509021491</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.07524992262132855</v>
+        <v>-0.1070935714840473</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2456976679918272</v>
       </c>
       <c r="E101" t="n">
-        <v>1.211067045950144</v>
+        <v>1.259950916081858</v>
       </c>
       <c r="F101" t="n">
-        <v>0.09588523421026185</v>
+        <v>0.1959671506977804</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.04600515936042732</v>
+        <v>-0.0497604030502445</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2785406012170829</v>
       </c>
       <c r="E102" t="n">
-        <v>1.080074451329998</v>
+        <v>1.118707323815442</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1001471145876243</v>
+        <v>0.1930937760548721</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1130534877911366</v>
+        <v>-0.1432560425996739</v>
       </c>
     </row>
   </sheetData>
